--- a/exampleFiles/TimeKex_timeDataInvalids.xlsx
+++ b/exampleFiles/TimeKex_timeDataInvalids.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\git\reactdev\kimai-excel-import\public\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\git\TimeKex\exampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D0E56-1E3A-4FD2-8CEA-A05F70AB98F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3ED72F-1B03-4CB7-81A6-EEFA446A0598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1765BF24-13D1-4792-ADB5-4E37D4C61FFF}"/>
+    <workbookView xWindow="765" yWindow="1200" windowWidth="24705" windowHeight="11385" xr2:uid="{1765BF24-13D1-4792-ADB5-4E37D4C61FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeTracking" sheetId="2" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44508</v>
+        <v>45238</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -581,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44508</v>
+        <v>45238</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -613,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44508</v>
+        <v>45238</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -645,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>44509</v>
+        <v>45239</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -677,7 +677,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>44509</v>
+        <v>45239</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -709,7 +709,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44510</v>
+        <v>45240</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -738,7 +738,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44511</v>
+        <v>45241</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -764,7 +764,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44511</v>
+        <v>45241</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -790,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44511</v>
+        <v>45241</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -816,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>44511</v>
+        <v>45241</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -845,7 +845,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>44512</v>
+        <v>45242</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
